--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1432057.360679009</v>
+        <v>1425620.836103422</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9567573.353202317</v>
+        <v>9566983.373811897</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>256.0833063690739</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>146.1269450175967</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>69.9893010461506</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>48.12141981735513</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.92168186963747</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>88.56494660667265</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.4533924965723</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -944,25 +944,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>81.53039454887129</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>92.55604675193626</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968106</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>30.28883853468449</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>78.672419025143</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>214.5700598743327</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>190.1851712219941</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.61260049965499</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>16.37035733665372</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>26.32608977062895</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>10.23593726080263</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
         <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>38.70052071486845</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1585,7 +1585,7 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>309.020621441457</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>120.0961968842566</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.53434518278241</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>145.733089249349</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277494</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
         <v>90.90562710059311</v>
@@ -2138,7 +2138,7 @@
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879318</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.17382596574971</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973564984</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.57601873167816</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196057</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380029</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.2233042466794</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644667</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883881</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541085</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.98356133658278</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.882059701038699</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.00800320656602</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879333</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1266.728354873844</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793362</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L2" t="n">
-        <v>668.673300197865</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207958</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.74336884542</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737748</v>
+        <v>1633.115590885712</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737748</v>
+        <v>1647.155266602909</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737748</v>
+        <v>1647.155266602909</v>
       </c>
       <c r="V2" t="n">
-        <v>2027.179994972499</v>
+        <v>1647.155266602909</v>
       </c>
       <c r="W2" t="n">
-        <v>1656.180959940787</v>
+        <v>1647.155266602909</v>
       </c>
       <c r="X2" t="n">
-        <v>1266.728354873844</v>
+        <v>1257.702661535966</v>
       </c>
       <c r="Y2" t="n">
-        <v>1266.728354873844</v>
+        <v>1257.702661535966</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021433</v>
+        <v>720.8094119682338</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622355</v>
+        <v>570.155181528326</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837159</v>
+        <v>440.0662141498063</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946036</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777354</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475497</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>638.184314874379</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303161</v>
+        <v>638.184314874379</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.64131843037</v>
+        <v>1151.786993484067</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021351</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737748</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1940.231660716789</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1763.247848915697</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1553.184705594339</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1330.644703965406</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1100.527458098693</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675974</v>
+        <v>1051.919963333688</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431047</v>
+        <v>872.6057464091951</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.4547072792673</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="C4" t="n">
-        <v>356.4547072792673</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="D4" t="n">
-        <v>200.821594181782</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="E4" t="n">
-        <v>200.821594181782</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>740.13418548044</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>454.695393722341</v>
       </c>
       <c r="V4" t="n">
-        <v>443.2442849253657</v>
+        <v>454.695393722341</v>
       </c>
       <c r="W4" t="n">
-        <v>443.2442849253657</v>
+        <v>454.695393722341</v>
       </c>
       <c r="X4" t="n">
-        <v>443.2442849253657</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="Y4" t="n">
-        <v>443.2442849253657</v>
+        <v>365.2358516953989</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1197.635903810283</v>
+        <v>1183.321709471584</v>
       </c>
       <c r="C5" t="n">
-        <v>1197.635903810283</v>
+        <v>790.1462079745143</v>
       </c>
       <c r="D5" t="n">
-        <v>1197.635903810283</v>
+        <v>790.1462079745143</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.635903810283</v>
+        <v>387.5626830910587</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>374.7086486614405</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>206.4491967474941</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>699.7694884660229</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1213.372167075711</v>
       </c>
       <c r="N5" t="n">
-        <v>1826.595477606226</v>
+        <v>1726.974845685398</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606226</v>
+        <v>1726.974845685398</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523737</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958336</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="V5" t="n">
-        <v>1491.023168958336</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="W5" t="n">
-        <v>1491.023168958336</v>
+        <v>1666.170389070729</v>
       </c>
       <c r="X5" t="n">
-        <v>1491.023168958336</v>
+        <v>1666.170389070729</v>
       </c>
       <c r="Y5" t="n">
-        <v>1491.023168958336</v>
+        <v>1583.816455182981</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146767</v>
+        <v>1872.013835936254</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1706.251474293495</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1483.711472664562</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1253.594226797849</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1064.287149147861</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>884.9729322233682</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.2675733206192</v>
+        <v>678.2751606822026</v>
       </c>
       <c r="C7" t="n">
-        <v>680.2675733206192</v>
+        <v>678.2751606822026</v>
       </c>
       <c r="D7" t="n">
-        <v>524.6344602231339</v>
+        <v>522.6420475847174</v>
       </c>
       <c r="E7" t="n">
-        <v>369.0756480823364</v>
+        <v>367.0832354439199</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953094</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W7" t="n">
-        <v>914.3478955376362</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="X7" t="n">
-        <v>680.2675733206192</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.2675733206192</v>
+        <v>863.4831793735038</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>748.4469575602968</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="C8" t="n">
-        <v>531.7095233437991</v>
+        <v>1934.480089865633</v>
       </c>
       <c r="D8" t="n">
-        <v>531.7095233437991</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4808,16 +4808,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1096.945999082414</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.757282719876</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2064.796883612205</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1905.389306738351</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1534.390271706639</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1144.937666639696</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>748.4469575602968</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>528.7100132738371</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>937.0300931484951</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>713.9180319651384</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.326329274748</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C11" t="n">
-        <v>1083.947102923872</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D11" t="n">
-        <v>1083.947102923872</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>748.5837713937468</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2984.647095423698</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2984.647095423698</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2984.647095423698</v>
       </c>
       <c r="W11" t="n">
-        <v>2376.375563693905</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X11" t="n">
-        <v>2058.719233773156</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y11" t="n">
-        <v>1734.024799839951</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>378.9738643893075</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O12" t="n">
         <v>2146.089571124861</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>254.6298380530034</v>
+        <v>428.5169307200796</v>
       </c>
       <c r="C13" t="n">
-        <v>156.2209952651864</v>
+        <v>330.1080879322626</v>
       </c>
       <c r="D13" t="n">
-        <v>145.8816646987191</v>
+        <v>246.2712499809712</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>162.5087129863676</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915622</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689336</v>
+        <v>855.5285073731727</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981108</v>
+        <v>693.2444603023497</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.0415815981108</v>
+        <v>541.9286742651871</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1712.892289341942</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1391.513062991067</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131008</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937467</v>
+        <v>748.583771393747</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>403.4856080699187</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.252057911387</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.941523761099</v>
+        <v>2984.647095423698</v>
       </c>
       <c r="W14" t="n">
-        <v>2683.941523761099</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>2366.28519384035</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2041.590759907145</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>691.2836731261136</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1319.055322752795</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221.8261207086605</v>
+        <v>497.3392809709728</v>
       </c>
       <c r="C16" t="n">
-        <v>123.4172779208437</v>
+        <v>398.930438183156</v>
       </c>
       <c r="D16" t="n">
-        <v>123.4172779208437</v>
+        <v>315.0936002318646</v>
       </c>
       <c r="E16" t="n">
-        <v>123.4172779208437</v>
+        <v>231.331063237261</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208437</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208437</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1449.72825274099</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1318.708444069734</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T16" t="n">
-        <v>1154.785667384162</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="U16" t="n">
-        <v>941.1431507722566</v>
+        <v>1283.090125202602</v>
       </c>
       <c r="V16" t="n">
-        <v>746.9600807392748</v>
+        <v>1135.884984546694</v>
       </c>
       <c r="W16" t="n">
-        <v>535.4259538166463</v>
+        <v>924.350857624066</v>
       </c>
       <c r="X16" t="n">
-        <v>373.1419067458232</v>
+        <v>762.0668105532429</v>
       </c>
       <c r="Y16" t="n">
-        <v>221.8261207086605</v>
+        <v>610.7510245160802</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>381.858273766342</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1009.629923393023</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1665.407894603582</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,19 +5680,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5908,25 +5908,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5990,16 +5990,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6139,34 +6139,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,31 +6218,31 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.428440379499</v>
@@ -6251,22 +6251,22 @@
         <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6309,10 +6309,10 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2189872295041</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>2483.124012847796</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>2407.859576200974</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>2347.167144390677</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>2286.549013537067</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>2224.163760037229</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>2150.850387423863</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>2090.312517672546</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>2052.158773596812</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>2115.436392728947</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>2290.322795568462</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>2547.501797171835</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>2826.844737239673</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>3103.085733000455</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>3358.841861771736</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>3571.769389277888</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>3639.282639297278</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>3531.407236767016</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573177</v>
+        <v>3390.628866222438</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>3200.130755751527</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>3029.09209185954</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>2840.702371077906</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>2701.562730148077</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>2573.391350251909</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388004</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
         <v>2893.292664647882</v>
@@ -6546,7 +6546,7 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>607.4220014342354</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108102</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803388</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>682.8393851136181</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651162</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>182.662530460489</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>666.2286163588022</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1294.000265985484</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1294.000265985484</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1810.520548576465</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2216.141917292862</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431911</v>
+        <v>86.73045008374181</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067511</v>
+        <v>337.0682132920775</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076211</v>
+        <v>612.8479737408603</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729554</v>
+        <v>799.1395520791243</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831235</v>
+        <v>982.3291861103335</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600013</v>
+        <v>1145.033953152041</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,7 +6959,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1803.092128039818</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2208.713496756216</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,10 +7211,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>2243.686201918055</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>2205.157820666453</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>2181.201444251376</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>2157.319368792987</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>2131.670170688369</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>2071.291039114125</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>2280.764761165982</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>2444.892401039781</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>2631.183979378045</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O40" t="n">
-        <v>939.5504151240295</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P40" t="n">
-        <v>1059.426580900608</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>2297.217483926948</v>
       </c>
     </row>
     <row r="41">
@@ -7418,10 +7418,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,7 +7430,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
         <v>3105.956385205777</v>
@@ -7439,16 +7439,16 @@
         <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>346.9752758473783</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>830.5413617456916</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1458.313011372373</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7573,22 +7573,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7682,13 +7682,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,25 +7807,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>276.2476446788144</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>410.1006258169456</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>274.5850301543775</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>378.9389569308742</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,16 +8216,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>163.5595921512854</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>399.5110292636024</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,13 +8301,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N6" t="n">
-        <v>247.0771922093714</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>297.8880658390572</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8456,7 +8456,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>454.191973973224</v>
+        <v>400.3730943507992</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,10 +8532,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,10 +8544,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>295.3946671166309</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,10 +8778,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>546.0917343741362</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>288.3536975034276</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,10 +9243,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>578.2246058800795</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>166.3231752016895</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9957,13 +9957,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>166.3231752016892</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10194,10 +10194,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>192.2856137303842</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10428,13 +10428,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>264.4640783312027</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,13 +10665,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>264.4640783312027</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,16 +10908,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>223.122899967847</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11139,16 +11139,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>311.1090199032352</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>123.8611942508166</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>72.76253231097583</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>45.97384232955639</v>
       </c>
       <c r="G13" t="n">
         <v>95.49320096681697</v>
@@ -23434,7 +23434,7 @@
         <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.487783659309901</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.7701071136281</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>147.5112319245283</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.049321896234432</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>46.50815008330312</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.181721801112872e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-9.566747394273988e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>840397.7207943691</v>
+        <v>840096.9469874889</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>840397.7207943691</v>
+        <v>840096.9469874889</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>745955.8007443993</v>
+        <v>745955.800744399</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842432.3122215978</v>
+        <v>842432.3122215979</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="C2" t="n">
-        <v>432797.2274240562</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="D2" t="n">
         <v>432797.2274240563</v>
@@ -26326,31 +26326,31 @@
         <v>382461.6562185611</v>
       </c>
       <c r="G2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="H2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="I2" t="n">
+        <v>432797.2274240562</v>
+      </c>
+      <c r="J2" t="n">
         <v>432797.2274240564</v>
-      </c>
-      <c r="J2" t="n">
-        <v>432797.2274240566</v>
       </c>
       <c r="K2" t="n">
         <v>432797.2274240562</v>
       </c>
       <c r="L2" t="n">
-        <v>432797.227424056</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="M2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="N2" t="n">
         <v>432797.2274240563</v>
       </c>
       <c r="O2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="P2" t="n">
         <v>432797.2274240563</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539689</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="D4" t="n">
-        <v>165792.0503172815</v>
+        <v>165792.0503172816</v>
       </c>
       <c r="E4" t="n">
+        <v>86988.78851589425</v>
+      </c>
+      <c r="F4" t="n">
         <v>86988.78851589424</v>
-      </c>
-      <c r="F4" t="n">
-        <v>86988.78851589428</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26436,16 +26436,16 @@
         <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="K4" t="n">
         <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26454,7 +26454,7 @@
         <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="P4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5832.173202948208</v>
+        <v>9281.297596602526</v>
       </c>
       <c r="C6" t="n">
-        <v>188037.1214948039</v>
+        <v>183139.9546306574</v>
       </c>
       <c r="D6" t="n">
-        <v>182597.5795189797</v>
+        <v>174861.2902955879</v>
       </c>
       <c r="E6" t="n">
-        <v>130164.2865287819</v>
+        <v>129954.5549820923</v>
       </c>
       <c r="F6" t="n">
-        <v>242286.8480028263</v>
+        <v>242077.1164561368</v>
       </c>
       <c r="G6" t="n">
-        <v>192454.4275643783</v>
+        <v>192454.4275643781</v>
       </c>
       <c r="H6" t="n">
-        <v>239879.7531010602</v>
+        <v>239879.7531010601</v>
       </c>
       <c r="I6" t="n">
-        <v>239879.7531010603</v>
+        <v>239879.7531010601</v>
       </c>
       <c r="J6" t="n">
-        <v>26837.83550377499</v>
+        <v>33354.12065834823</v>
       </c>
       <c r="K6" t="n">
         <v>233639.9846982771</v>
       </c>
       <c r="L6" t="n">
-        <v>178457.3957636557</v>
+        <v>174408.5585531837</v>
       </c>
       <c r="M6" t="n">
-        <v>197678.9236414373</v>
+        <v>196627.2286302492</v>
       </c>
       <c r="N6" t="n">
         <v>239879.7531010602</v>
       </c>
       <c r="O6" t="n">
-        <v>212112.059058289</v>
+        <v>212112.0590582888</v>
       </c>
       <c r="P6" t="n">
         <v>239879.7531010602</v>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,16 +26707,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,19 +26808,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26917,10 +26917,10 @@
         <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924612</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287419</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407304</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>140.406491885209</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>192.5587961859201</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.8699187027036</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>139.2925870561333</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.4342566347508</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27585,22 +27585,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>143.1745723881741</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.0364057577106</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>310.9954074397336</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.72232434461546</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626999</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>250.2082595134497</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>142.2085215463801</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>174.673686607766</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>191.4015462735048</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>220.1269184951917</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28752,22 +28752,22 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.636002634528481</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28992,16 +28992,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29062,7 +29062,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
         <v>30.27223765901169</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29548,7 +29548,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>43.49509683159698</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566499</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861254019</v>
+        <v>106.8683420224698</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,34 +30141,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>28.01250026485259</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,37 +30180,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634529973</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30402,11 +30402,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.71049010668797</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30645,13 +30645,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,7 +30879,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R46" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>133.189241499577</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>259.7991785760204</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>189.2129173002108</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>286.2513980419853</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>20.50118897204808</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N5" t="n">
-        <v>250.3925379258183</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,13 +35021,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N6" t="n">
-        <v>161.7050793552047</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>205.2005069501683</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>303.8905267322988</v>
+        <v>250.071647109874</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>227.4725996515693</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,10 +35264,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>205.7977317832976</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,10 +35498,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>460.7196215199696</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>198.2933506465093</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>485.5370469911906</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,16 +36288,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>73.93605315237758</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>316.4712935610698</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>563.4149484039228</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>73.9360531523773</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851011</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36844,7 +36844,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>474.7566830047985</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36914,10 +36914,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>102.225266873466</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>487.9795421773833</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.4759251752887</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791188</v>
+        <v>82.70543230055102</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993502</v>
+        <v>189.5299997092797</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106683</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37385,13 +37385,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.4759251752887</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724881</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,16 +37628,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>137.7507871136803</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.16725411684045</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950874</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
